--- a/project/templates/Compatibility test_case.xlsx
+++ b/project/templates/Compatibility test_case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongnhat/Desktop/Project-KTPM/project/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE3B4C0-AC7D-4243-A283-CF8AFB9ED549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D297A17-AA67-0B49-9587-8015837E982F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20060" tabRatio="821" activeTab="5" xr2:uid="{54D1C333-A8F3-504F-8D67-28F9DF72E520}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20060" tabRatio="821" activeTab="2" xr2:uid="{54D1C333-A8F3-504F-8D67-28F9DF72E520}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="174">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -639,9 +639,6 @@
   </si>
   <si>
     <t>UI reference data for OS compatibility</t>
-  </si>
-  <si>
-    <t>Font, color, icons consistent</t>
   </si>
   <si>
     <t>Product: Burger; Detail: Ngon</t>
@@ -2425,7 +2422,7 @@
       <c r="B11" s="48"/>
       <c r="C11" s="49"/>
       <c r="D11" s="101" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E11" s="50"/>
       <c r="F11" s="51"/>
@@ -2526,9 +2523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D16ABC5-B443-FF41-BA73-04E67E6728A8}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -2957,7 +2954,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="C9:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -3347,7 +3344,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -3364,7 +3361,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18">
       <c r="A1" s="117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="114" t="s">
         <v>145</v>
@@ -3381,7 +3378,7 @@
     </row>
     <row r="2" spans="1:5" ht="18">
       <c r="A2" s="133" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="115" t="s">
         <v>57</v>
@@ -3390,7 +3387,7 @@
         <v>148</v>
       </c>
       <c r="D2" s="115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E2" s="115" t="s">
         <v>93</v>
@@ -3405,7 +3402,7 @@
         <v>148</v>
       </c>
       <c r="D3" s="115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E3" s="115" t="s">
         <v>94</v>
@@ -3420,7 +3417,7 @@
         <v>148</v>
       </c>
       <c r="D4" s="115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E4" s="115" t="s">
         <v>95</v>
@@ -3435,7 +3432,7 @@
         <v>149</v>
       </c>
       <c r="D5" s="116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E5" s="115" t="s">
         <v>96</v>
@@ -3450,7 +3447,7 @@
         <v>150</v>
       </c>
       <c r="D6" s="115" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="115" t="s">
         <v>97</v>
@@ -3465,7 +3462,7 @@
         <v>151</v>
       </c>
       <c r="D7" s="115" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E7" s="115" t="s">
         <v>98</v>
@@ -3480,7 +3477,7 @@
         <v>152</v>
       </c>
       <c r="D8" s="115" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E8" s="115" t="s">
         <v>99</v>
@@ -3488,7 +3485,7 @@
     </row>
     <row r="9" spans="1:5" ht="18">
       <c r="A9" s="133" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9" s="115" t="s">
         <v>64</v>
@@ -3497,7 +3494,7 @@
         <v>153</v>
       </c>
       <c r="D9" s="115" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E9" s="115" t="s">
         <v>110</v>
@@ -3512,7 +3509,7 @@
         <v>154</v>
       </c>
       <c r="D10" s="115" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E10" s="115" t="s">
         <v>111</v>
@@ -3527,7 +3524,7 @@
         <v>155</v>
       </c>
       <c r="D11" s="116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E11" s="115" t="s">
         <v>112</v>
@@ -3542,7 +3539,7 @@
         <v>156</v>
       </c>
       <c r="D12" s="115" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E12" s="115" t="s">
         <v>113</v>
@@ -3557,7 +3554,7 @@
         <v>158</v>
       </c>
       <c r="D13" s="115" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E13" s="115" t="s">
         <v>114</v>
@@ -3572,7 +3569,7 @@
         <v>160</v>
       </c>
       <c r="D14" s="115" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E14" s="115" t="s">
         <v>115</v>
@@ -3592,7 +3589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64336199-8AF6-B940-8B43-002AEC695EDA}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I27:I28"/>
     </sheetView>
   </sheetViews>
@@ -3883,15 +3880,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005EA2A741C5885C41AB9A358CCBEA8A85" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b08c537a49adf1f0264621696145d4e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" xmlns:ns3="cd6d2771-e08b-42a3-90f8-eca630337659" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79edc66073723f43766a972d30b274e4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4265,15 +4253,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85ED280E-F51D-42B1-B363-4EC477D089ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCAE63D-5380-40ED-A43E-1567E1C20371}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4290,4 +4279,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85ED280E-F51D-42B1-B363-4EC477D089ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/project/templates/Compatibility test_case.xlsx
+++ b/project/templates/Compatibility test_case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongnhat/Desktop/Project-KTPM/project/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D297A17-AA67-0B49-9587-8015837E982F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC30EA6-A607-2F47-B21A-0B6DB6F4911E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20060" tabRatio="821" activeTab="2" xr2:uid="{54D1C333-A8F3-504F-8D67-28F9DF72E520}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20060" tabRatio="821" activeTab="5" xr2:uid="{54D1C333-A8F3-504F-8D67-28F9DF72E520}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Test Report" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Module1!$A$8:$I$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Module1!$A$8:$I$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Module2!$A$8:$H$14</definedName>
     <definedName name="ACTION">#REF!</definedName>
   </definedNames>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="170">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -357,15 +357,6 @@
     <t>Browser: Safari</t>
   </si>
   <si>
-    <t>Verify website layout on Edge</t>
-  </si>
-  <si>
-    <t>App deployed, Edge installed</t>
-  </si>
-  <si>
-    <t>Browser: Edge</t>
-  </si>
-  <si>
     <t>Verify login on all browsers</t>
   </si>
   <si>
@@ -523,9 +514,6 @@
     <t>testdata02</t>
   </si>
   <si>
-    <t>testdata03</t>
-  </si>
-  <si>
     <t>testdata04</t>
   </si>
   <si>
@@ -653,18 +641,9 @@
     <t>Product: Pizza; Detail: ngon</t>
   </si>
   <si>
-    <t>Visa; Amount: Valid order total</t>
-  </si>
-  <si>
     <t>Font: Outfit; Icons: Material Icons</t>
   </si>
   <si>
-    <t>Credit Card: 4242 4242 4242; Exp: 12/27; CVV: 123; Name: Tinh</t>
-  </si>
-  <si>
-    <t>URL: Application homepage; URL admin:</t>
-  </si>
-  <si>
     <t>Module</t>
   </si>
   <si>
@@ -678,6 +657,17 @@
   </si>
   <si>
     <t>Module3</t>
+  </si>
+  <si>
+    <t>Chrome, Safari</t>
+  </si>
+  <si>
+    <t>Credit Card: 4242 4242 4242; Exp: 12/27; CVV: 123; Name: Tinh
+email: 122@gmail.com</t>
+  </si>
+  <si>
+    <t>URL homepage: https://frontend-deploy-8yh2.onrender.com
+URL admin: https://admin-deploy-4xtl.onrender.com</t>
   </si>
 </sst>
 </file>
@@ -870,7 +860,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1322,6 +1312,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1330,7 +1357,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1705,6 +1732,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2422,7 +2464,7 @@
       <c r="B11" s="48"/>
       <c r="C11" s="49"/>
       <c r="D11" s="101" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E11" s="50"/>
       <c r="F11" s="51"/>
@@ -2521,11 +2563,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D16ABC5-B443-FF41-BA73-04E67E6728A8}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -2626,11 +2668,11 @@
     </row>
     <row r="6" spans="1:11" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="69">
-        <f>COUNTIF(G9:G992,"Pass")</f>
-        <v>7</v>
+        <f>COUNTIF(G9:G991,"Pass")</f>
+        <v>6</v>
       </c>
       <c r="B6" s="70">
-        <f>COUNTIF(G9:G992,"Fail")</f>
+        <f>COUNTIF(G9:G991,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="70">
@@ -2638,11 +2680,11 @@
         <v>0</v>
       </c>
       <c r="D6" s="71">
-        <f>COUNTIF(G$9:G$992,"N/A")</f>
+        <f>COUNTIF(G$9:G$991,"N/A")</f>
         <v>0</v>
       </c>
       <c r="E6" s="129">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="129"/>
       <c r="G6" s="68"/>
@@ -2666,7 +2708,7 @@
         <v>39</v>
       </c>
       <c r="C8" s="105" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D8" s="105" t="s">
         <v>40</v>
@@ -2687,7 +2729,7 @@
         <v>56</v>
       </c>
       <c r="J8" s="112" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K8" s="105" t="s">
         <v>23</v>
@@ -2695,7 +2737,7 @@
     </row>
     <row r="9" spans="1:11" ht="114" customHeight="1">
       <c r="A9" s="102" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B9" s="104" t="s">
         <v>70</v>
@@ -2704,19 +2746,19 @@
         <v>71</v>
       </c>
       <c r="D9" s="103" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E9" s="103" t="s">
         <v>72</v>
       </c>
       <c r="F9" s="102" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G9" s="102" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="102" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I9" s="103" t="s">
         <v>73</v>
@@ -2728,7 +2770,7 @@
     </row>
     <row r="10" spans="1:11" ht="114" customHeight="1">
       <c r="A10" s="102" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" s="104" t="s">
         <v>74</v>
@@ -2737,19 +2779,19 @@
         <v>75</v>
       </c>
       <c r="D10" s="103" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E10" s="103" t="s">
         <v>72</v>
       </c>
       <c r="F10" s="102" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G10" s="102" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="102" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I10" s="103" t="s">
         <v>76</v>
@@ -2759,9 +2801,9 @@
       </c>
       <c r="K10" s="113"/>
     </row>
-    <row r="11" spans="1:11" ht="114" customHeight="1">
+    <row r="11" spans="1:11" ht="78" customHeight="1">
       <c r="A11" s="102" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B11" s="104" t="s">
         <v>77</v>
@@ -2770,64 +2812,64 @@
         <v>78</v>
       </c>
       <c r="D11" s="103" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E11" s="103" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F11" s="102" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G11" s="102" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="102" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I11" s="103" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J11" s="113" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="K11" s="113"/>
     </row>
-    <row r="12" spans="1:11" ht="78" customHeight="1">
+    <row r="12" spans="1:11" ht="89" customHeight="1">
       <c r="A12" s="102" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" s="104" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="103" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D12" s="103" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E12" s="103" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F12" s="102" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G12" s="102" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="102" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I12" s="103" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J12" s="113" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="K12" s="113"/>
     </row>
-    <row r="13" spans="1:11" ht="89" customHeight="1">
+    <row r="13" spans="1:11" ht="103" customHeight="1">
       <c r="A13" s="102" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B13" s="104" t="s">
         <v>84</v>
@@ -2836,31 +2878,31 @@
         <v>85</v>
       </c>
       <c r="D13" s="103" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E13" s="103" t="s">
         <v>86</v>
       </c>
       <c r="F13" s="102" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G13" s="102" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="102" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I13" s="103" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J13" s="113" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="K13" s="113"/>
     </row>
-    <row r="14" spans="1:11" ht="103" customHeight="1">
+    <row r="14" spans="1:11" ht="124" customHeight="1">
       <c r="A14" s="102" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B14" s="104" t="s">
         <v>87</v>
@@ -2869,60 +2911,27 @@
         <v>88</v>
       </c>
       <c r="D14" s="103" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E14" s="103" t="s">
         <v>89</v>
       </c>
       <c r="F14" s="102" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14" s="102" t="s">
         <v>29</v>
       </c>
       <c r="H14" s="102" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I14" s="103" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J14" s="113" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="K14" s="113"/>
-    </row>
-    <row r="15" spans="1:11" ht="124" customHeight="1">
-      <c r="A15" s="102" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="104" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="103" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="103" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="103" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="102" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2934,7 +2943,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7 F16:F139 G8" xr:uid="{0926D9D0-1AE7-204E-AFDC-71D73AD07237}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7 F15:F138 G8" xr:uid="{0926D9D0-1AE7-204E-AFDC-71D73AD07237}">
       <formula1>$I$2:$I$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2952,9 +2961,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE163C4-5C5E-D449-BB67-F443A6D227A8}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="C9:E14"/>
+    <sheetView zoomScale="116" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -3102,7 +3111,7 @@
         <v>39</v>
       </c>
       <c r="C8" s="105" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D8" s="105" t="s">
         <v>40</v>
@@ -3123,7 +3132,7 @@
         <v>55</v>
       </c>
       <c r="J8" s="105" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K8" s="105" t="s">
         <v>23</v>
@@ -3131,187 +3140,187 @@
     </row>
     <row r="9" spans="1:11" ht="63" customHeight="1">
       <c r="A9" s="106" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B9" s="111" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C9" s="111" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9" s="104" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E9" s="111" t="s">
         <v>72</v>
       </c>
       <c r="F9" s="106" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G9" s="106" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="108" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I9" s="110"/>
       <c r="J9" s="107" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K9" s="107"/>
     </row>
     <row r="10" spans="1:11" ht="52" customHeight="1">
       <c r="A10" s="106" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B10" s="111" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C10" s="111" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D10" s="104" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E10" s="111" t="s">
         <v>72</v>
       </c>
       <c r="F10" s="106" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G10" s="106" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="108" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I10" s="110"/>
       <c r="J10" s="107" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K10" s="107"/>
     </row>
     <row r="11" spans="1:11" ht="80" customHeight="1">
       <c r="A11" s="106" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B11" s="111" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C11" s="111" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D11" s="104" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E11" s="111" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F11" s="106" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G11" s="106" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="108" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I11" s="110"/>
       <c r="J11" s="107" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K11" s="107"/>
     </row>
     <row r="12" spans="1:11" ht="76" customHeight="1">
       <c r="A12" s="106" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B12" s="111" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C12" s="111" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" s="104" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E12" s="111" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F12" s="106" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G12" s="106" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="108" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I12" s="110"/>
       <c r="J12" s="107" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K12" s="107"/>
     </row>
     <row r="13" spans="1:11" ht="94" customHeight="1">
       <c r="A13" s="106" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B13" s="111" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C13" s="111" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D13" s="104" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E13" s="111" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F13" s="106" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G13" s="106" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="108" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I13" s="110"/>
       <c r="J13" s="107" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K13" s="107"/>
     </row>
     <row r="14" spans="1:11" ht="43" customHeight="1">
       <c r="A14" s="106" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B14" s="111" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C14" s="111" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D14" s="104" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E14" s="111" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F14" s="106" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G14" s="106" t="s">
         <v>29</v>
       </c>
       <c r="H14" s="108" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I14" s="110"/>
       <c r="J14" s="107" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K14" s="107"/>
     </row>
@@ -3344,7 +3353,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -3361,36 +3370,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18">
       <c r="A1" s="117" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B1" s="114" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C1" s="114" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="114" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E1" s="114" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18">
       <c r="A2" s="133" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B2" s="115" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="115" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="115" t="s">
-        <v>168</v>
+        <v>144</v>
+      </c>
+      <c r="D2" s="139" t="s">
+        <v>169</v>
       </c>
       <c r="E2" s="115" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18">
@@ -3399,13 +3408,11 @@
         <v>58</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="115" t="s">
-        <v>168</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="D3" s="140"/>
       <c r="E3" s="115" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18">
@@ -3414,13 +3421,11 @@
         <v>59</v>
       </c>
       <c r="C4" s="115" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="115" t="s">
-        <v>168</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="D4" s="141"/>
       <c r="E4" s="115" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19">
@@ -3429,13 +3434,13 @@
         <v>60</v>
       </c>
       <c r="C5" s="115" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D5" s="116" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E5" s="115" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18">
@@ -3444,28 +3449,28 @@
         <v>61</v>
       </c>
       <c r="C6" s="115" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D6" s="115" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E6" s="115" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="38">
       <c r="A7" s="133"/>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="115" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="115" t="s">
-        <v>167</v>
+      <c r="C7" s="137" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="138" t="s">
+        <v>168</v>
       </c>
       <c r="E7" s="115" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18">
@@ -3474,30 +3479,30 @@
         <v>63</v>
       </c>
       <c r="C8" s="115" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D8" s="115" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E8" s="115" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
       <c r="A9" s="133" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B9" s="115" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="115" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D9" s="115" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E9" s="115" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
@@ -3506,13 +3511,13 @@
         <v>65</v>
       </c>
       <c r="C10" s="115" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D10" s="115" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E10" s="115" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19">
@@ -3521,13 +3526,13 @@
         <v>66</v>
       </c>
       <c r="C11" s="115" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D11" s="116" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E11" s="115" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18">
@@ -3536,49 +3541,50 @@
         <v>67</v>
       </c>
       <c r="C12" s="115" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D12" s="115" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E12" s="115" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="38">
       <c r="A13" s="133"/>
       <c r="B13" s="115" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C13" s="115" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="115" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="115" t="s">
-        <v>114</v>
+        <v>154</v>
+      </c>
+      <c r="D13" s="138" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="137" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18">
       <c r="A14" s="133"/>
       <c r="B14" s="115" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C14" s="115" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D14" s="115" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E14" s="115" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A14"/>
+    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3589,7 +3595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64336199-8AF6-B940-8B43-002AEC695EDA}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I28" sqref="I27:I28"/>
     </sheetView>
   </sheetViews>
@@ -3740,7 +3746,7 @@
       </c>
       <c r="D11" s="89">
         <f>Module1!A6</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="89">
         <f>Module1!B6</f>
@@ -3756,7 +3762,7 @@
       </c>
       <c r="H11" s="118">
         <f>Module1!E6</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3806,7 +3812,7 @@
       </c>
       <c r="D14" s="93">
         <f>SUM(D9:D13)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="93">
         <f>SUM(E9:E13)</f>
@@ -3822,7 +3828,7 @@
       </c>
       <c r="H14" s="94">
         <f>SUM(H9:H13)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3880,6 +3886,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005EA2A741C5885C41AB9A358CCBEA8A85" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b08c537a49adf1f0264621696145d4e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" xmlns:ns3="cd6d2771-e08b-42a3-90f8-eca630337659" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79edc66073723f43766a972d30b274e4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4253,16 +4268,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85ED280E-F51D-42B1-B363-4EC477D089ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCAE63D-5380-40ED-A43E-1567E1C20371}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4279,12 +4293,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85ED280E-F51D-42B1-B363-4EC477D089ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>